--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2356.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2356.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8395780251229339</v>
+        <v>1.008424997329712</v>
       </c>
       <c r="B1">
-        <v>1.438525064022613</v>
+        <v>2.118328809738159</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.428490161895752</v>
       </c>
       <c r="D1">
-        <v>2.412437296884894</v>
+        <v>1.635860562324524</v>
       </c>
       <c r="E1">
-        <v>1.273627009661312</v>
+        <v>1.366116642951965</v>
       </c>
     </row>
   </sheetData>
